--- a/Lab05/winograd_600 imrpoved.xlsx
+++ b/Lab05/winograd_600 imrpoved.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="winograd" localSheetId="0">Лист1!$S$9:$T$30</definedName>
     <definedName name="winograd_600" localSheetId="0">Лист1!$D$6:$E$16</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -28,7 +29,15 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="winograd_600" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="1" name="winograd" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="866" sourceFile="C:\Users\Dmitry\Documents\GitHub\AlgorithmAnalisis\Lab05\Lab05\bin\Release\winograd.txt" decimal="," thousands=" " space="1" consecutive="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="winograd_600" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="866" sourceFile="C:\Users\Dmitry\Documents\GitHub\AlgorithmAnalisis\Lab05\Lab05\bin\Debug\winograd_600.txt" decimal="," thousands=" " space="1" consecutive="1">
       <textFields count="2">
         <textField/>
@@ -242,37 +251,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>38114260</c:v>
+                  <c:v>10204769</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19526320</c:v>
+                  <c:v>5248603</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10369064</c:v>
+                  <c:v>2583888</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6743170</c:v>
+                  <c:v>1438517</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9798085</c:v>
+                  <c:v>1589456</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11887360</c:v>
+                  <c:v>1550446</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18186155</c:v>
+                  <c:v>1524804</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26953543</c:v>
+                  <c:v>1815226</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38779590</c:v>
+                  <c:v>1974584</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52986036</c:v>
+                  <c:v>2180765</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>83340832</c:v>
+                  <c:v>4015454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -289,11 +298,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2072974000"/>
-        <c:axId val="2072977808"/>
+        <c:axId val="-708234688"/>
+        <c:axId val="-708220544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2072974000"/>
+        <c:axId val="-708234688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -336,7 +345,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2072977808"/>
+        <c:crossAx val="-708220544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -344,7 +353,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2072977808"/>
+        <c:axId val="-708220544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -395,7 +404,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2072974000"/>
+        <c:crossAx val="-708234688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1023,7 +1032,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="winograd_600" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="winograd" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="winograd_600" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1292,13 +1305,15 @@
   <dimension ref="D6:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5" customWidth="1"/>
+    <col min="20" max="20" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="4:5" x14ac:dyDescent="0.25">
@@ -1306,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>38114260</v>
+        <v>10204769</v>
       </c>
     </row>
     <row r="7" spans="4:5" x14ac:dyDescent="0.25">
@@ -1314,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>19526320</v>
+        <v>5248603</v>
       </c>
     </row>
     <row r="8" spans="4:5" x14ac:dyDescent="0.25">
@@ -1322,7 +1337,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>10369064</v>
+        <v>2583888</v>
       </c>
     </row>
     <row r="9" spans="4:5" x14ac:dyDescent="0.25">
@@ -1330,7 +1345,7 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>6743170</v>
+        <v>1438517</v>
       </c>
     </row>
     <row r="10" spans="4:5" x14ac:dyDescent="0.25">
@@ -1338,7 +1353,7 @@
         <v>16</v>
       </c>
       <c r="E10">
-        <v>9798085</v>
+        <v>1589456</v>
       </c>
     </row>
     <row r="11" spans="4:5" x14ac:dyDescent="0.25">
@@ -1346,7 +1361,7 @@
         <v>32</v>
       </c>
       <c r="E11">
-        <v>11887360</v>
+        <v>1550446</v>
       </c>
     </row>
     <row r="12" spans="4:5" x14ac:dyDescent="0.25">
@@ -1354,7 +1369,7 @@
         <v>64</v>
       </c>
       <c r="E12">
-        <v>18186155</v>
+        <v>1524804</v>
       </c>
     </row>
     <row r="13" spans="4:5" x14ac:dyDescent="0.25">
@@ -1362,7 +1377,7 @@
         <v>128</v>
       </c>
       <c r="E13">
-        <v>26953543</v>
+        <v>1815226</v>
       </c>
     </row>
     <row r="14" spans="4:5" x14ac:dyDescent="0.25">
@@ -1370,7 +1385,7 @@
         <v>256</v>
       </c>
       <c r="E14">
-        <v>38779590</v>
+        <v>1974584</v>
       </c>
     </row>
     <row r="15" spans="4:5" x14ac:dyDescent="0.25">
@@ -1378,7 +1393,7 @@
         <v>512</v>
       </c>
       <c r="E15">
-        <v>52986036</v>
+        <v>2180765</v>
       </c>
     </row>
     <row r="16" spans="4:5" x14ac:dyDescent="0.25">
@@ -1386,7 +1401,7 @@
         <v>1024</v>
       </c>
       <c r="E16">
-        <v>83340832</v>
+        <v>4015454</v>
       </c>
     </row>
   </sheetData>
